--- a/inst/app/www/data_dashboardr.xlsx
+++ b/inst/app/www/data_dashboardr.xlsx
@@ -29,64 +29,64 @@
     <t>id</t>
   </si>
   <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>graph1</t>
+  </si>
+  <si>
+    <t>graph3</t>
+  </si>
+  <si>
+    <t>graph4</t>
+  </si>
+  <si>
+    <t>r$mtcars</t>
+  </si>
+  <si>
+    <t>disp</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>table2</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>graph2</t>
+  </si>
+  <si>
+    <t>table1</t>
+  </si>
+  <si>
+    <t>table3</t>
+  </si>
+  <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>graph1</t>
-  </si>
-  <si>
-    <t>graph3</t>
-  </si>
-  <si>
-    <t>graph4</t>
-  </si>
-  <si>
-    <t>r$mtcars</t>
-  </si>
-  <si>
-    <t>disp</t>
-  </si>
-  <si>
-    <t>mpg</t>
-  </si>
-  <si>
-    <t>wt</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>plot</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>table2</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>graph2</t>
-  </si>
-  <si>
-    <t>table1</t>
-  </si>
-  <si>
-    <t>table3</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,33 +417,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -452,21 +452,21 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -477,13 +477,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -492,21 +492,21 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -517,13 +517,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -532,21 +532,21 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -557,13 +557,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -572,10 +572,10 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/inst/app/www/data_dashboardr.xlsx
+++ b/inst/app/www/data_dashboardr.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/inst/app/www/data_dashboardr.xlsx
+++ b/inst/app/www/data_dashboardr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -74,9 +74,6 @@
     <t>table2</t>
   </si>
   <si>
-    <t>card</t>
-  </si>
-  <si>
     <t>graph2</t>
   </si>
   <si>
@@ -87,6 +84,84 @@
   </si>
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>sect_width_sm</t>
+  </si>
+  <si>
+    <t>sect_width_md</t>
+  </si>
+  <si>
+    <t>sect_width_lg</t>
+  </si>
+  <si>
+    <t>sect_width_xl</t>
+  </si>
+  <si>
+    <t>sect_width</t>
+  </si>
+  <si>
+    <t>sect_title</t>
+  </si>
+  <si>
+    <t>sect_footer</t>
+  </si>
+  <si>
+    <t>titre 1</t>
+  </si>
+  <si>
+    <t>titre 3</t>
+  </si>
+  <si>
+    <t>titre 4</t>
+  </si>
+  <si>
+    <t>titre 5</t>
+  </si>
+  <si>
+    <t>titre 6</t>
+  </si>
+  <si>
+    <t>footer 2</t>
+  </si>
+  <si>
+    <t>footer 3</t>
+  </si>
+  <si>
+    <t>footer 5</t>
+  </si>
+  <si>
+    <t>footer 6</t>
+  </si>
+  <si>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>Ce graphique est à interpréter avec parcimonie du fait de la sous-déclaration des diagnostics COVID-19 dans les résumés de passages aux urgences</t>
+  </si>
+  <si>
+    <t>%r% div(icon("cog"),tags$span("Titre 2"))</t>
+  </si>
+  <si>
+    <t>%r% icon("cloud",class="text-primary")</t>
+  </si>
+  <si>
+    <t>sect_title_align</t>
+  </si>
+  <si>
+    <t>sect_footer_align</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>center</t>
   </si>
 </sst>
 </file>
@@ -122,8 +197,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,181 +482,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="11.5546875" style="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.5546875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
+      <c r="M8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/app/www/data_dashboardr.xlsx
+++ b/inst/app/www/data_dashboardr.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/inst/app/www/data_dashboardr.xlsx
+++ b/inst/app/www/data_dashboardr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -162,6 +162,30 @@
   </si>
   <si>
     <t>center</t>
+  </si>
+  <si>
+    <t>sect_title_bgcolor</t>
+  </si>
+  <si>
+    <t>sect_border_color</t>
+  </si>
+  <si>
+    <t>sect_footer_bgcolor</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>success</t>
   </si>
 </sst>
 </file>
@@ -482,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,10 +523,13 @@
     <col min="14" max="14" width="31.21875" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.5546875" style="1"/>
+    <col min="17" max="17" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +578,17 @@
       <c r="P1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -590,10 +626,10 @@
         <v>44</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -622,13 +658,19 @@
         <v>33</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -663,13 +705,16 @@
         <v>40</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="R4" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -698,13 +743,16 @@
         <v>34</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="R5" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -739,10 +787,16 @@
         <v>45</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -774,10 +828,16 @@
         <v>45</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,7 +875,13 @@
         <v>45</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/inst/app/www/data_dashboardr.xlsx
+++ b/inst/app/www/data_dashboardr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>success</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,7 +670,7 @@
         <v>50</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -710,6 +713,9 @@
       <c r="P4" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="R4" s="1" t="s">
         <v>49</v>
       </c>
@@ -748,8 +754,14 @@
       <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="Q5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="R5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -790,10 +802,13 @@
         <v>45</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -831,10 +846,13 @@
         <v>45</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -881,6 +899,9 @@
         <v>51</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>51</v>
       </c>
     </row>

--- a/inst/app/www/data_dashboardr.xlsx
+++ b/inst/app/www/data_dashboardr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -110,9 +110,6 @@
     <t>sect_footer</t>
   </si>
   <si>
-    <t>titre 1</t>
-  </si>
-  <si>
     <t>titre 3</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>titre 5</t>
   </si>
   <si>
-    <t>titre 6</t>
-  </si>
-  <si>
     <t>footer 2</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>Ce graphique est à interpréter avec parcimonie du fait de la sous-déclaration des diagnostics COVID-19 dans les résumés de passages aux urgences</t>
   </si>
   <si>
-    <t>%r% div(icon("cog"),tags$span("Titre 2"))</t>
-  </si>
-  <si>
     <t>%r% icon("cloud",class="text-primary")</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t>sect_footer_align</t>
   </si>
   <si>
-    <t>end</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -167,25 +155,37 @@
     <t>sect_title_bgcolor</t>
   </si>
   <si>
-    <t>sect_border_color</t>
-  </si>
-  <si>
     <t>sect_footer_bgcolor</t>
   </si>
   <si>
     <t>primary</t>
   </si>
   <si>
-    <t>secondary</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>danger</t>
   </si>
   <si>
-    <t>success</t>
+    <t>sect_tlp_msg</t>
+  </si>
+  <si>
+    <t>sect_tlp_color</t>
+  </si>
+  <si>
+    <t>sect_tlp_position</t>
+  </si>
+  <si>
+    <t>essai</t>
+  </si>
+  <si>
+    <t>%r% tagList(icon("cog"),tags$span("Titre 2"))</t>
+  </si>
+  <si>
+    <t>reeee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">essai2 dfsdfsdf s fds dfs fs sdf sf sdf sdf sd fsd f sdf sdf sdf sdf sdf sd fsd f sdf sdf sdvxc v xcv xv xcv xcv xc vxcvxcvxcv </t>
+  </si>
+  <si>
+    <t>Evolution temporelle du COVID-19</t>
   </si>
   <si>
     <t>warning</t>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,12 +527,14 @@
     <col min="15" max="15" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.5546875" style="1"/>
+    <col min="18" max="18" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,22 +578,28 @@
         <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -613,26 +621,35 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1">
-        <v>4</v>
+      <c r="H2" s="1">
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>44</v>
+      <c r="R2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -643,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -652,28 +669,31 @@
         <v>6</v>
       </c>
       <c r="K3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -684,7 +704,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -699,28 +719,28 @@
         <v>6</v>
       </c>
       <c r="K4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -731,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -740,31 +760,28 @@
         <v>6</v>
       </c>
       <c r="K5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,7 +792,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -793,25 +810,22 @@
         <v>4</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -819,10 +833,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -834,28 +848,25 @@
         <v>4</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -883,26 +894,20 @@
       <c r="K8" s="1">
         <v>4</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/inst/app/www/data_dashboardr.xlsx
+++ b/inst/app/www/data_dashboardr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -158,37 +158,49 @@
     <t>sect_footer_bgcolor</t>
   </si>
   <si>
+    <t>sect_tlp_msg</t>
+  </si>
+  <si>
+    <t>sect_tlp_color</t>
+  </si>
+  <si>
+    <t>sect_tlp_position</t>
+  </si>
+  <si>
+    <t>%r% tagList(icon("cog"),tags$span("Titre 2"))</t>
+  </si>
+  <si>
+    <t>Evolution temporelle du COVID-19</t>
+  </si>
+  <si>
+    <t>sect_title_color</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>nav_title</t>
+  </si>
+  <si>
+    <t>nav_icon_name</t>
+  </si>
+  <si>
+    <t>nav_icon_lib</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>titre1</t>
+  </si>
+  <si>
+    <t>titre2</t>
+  </si>
+  <si>
     <t>primary</t>
   </si>
   <si>
-    <t>danger</t>
-  </si>
-  <si>
-    <t>sect_tlp_msg</t>
-  </si>
-  <si>
-    <t>sect_tlp_color</t>
-  </si>
-  <si>
-    <t>sect_tlp_position</t>
-  </si>
-  <si>
-    <t>essai</t>
-  </si>
-  <si>
-    <t>%r% tagList(icon("cog"),tags$span("Titre 2"))</t>
-  </si>
-  <si>
-    <t>reeee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">essai2 dfsdfsdf s fds dfs fs sdf sf sdf sdf sd fsd f sdf sdf sdf sdf sdf sd fsd f sdf sdf sdvxc v xcv xv xcv xcv xc vxcvxcvxcv </t>
-  </si>
-  <si>
-    <t>Evolution temporelle du COVID-19</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>yeaaaahhhhhh !</t>
   </si>
 </sst>
 </file>
@@ -509,32 +521,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="11.5546875" style="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="10" width="11.5546875" style="1"/>
+    <col min="11" max="11" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="1" customWidth="1"/>
+    <col min="17" max="17" width="31.21875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,55 +564,67 @@
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -615,41 +640,35 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="1">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -665,35 +684,26 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="M3" s="1">
         <v>6</v>
       </c>
-      <c r="K3" s="1">
+      <c r="N3" s="1">
         <v>6</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -710,37 +720,37 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4" s="1">
         <v>6</v>
       </c>
-      <c r="K4" s="1">
+      <c r="N4" s="1">
         <v>6</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="R4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -756,32 +766,32 @@
       <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="1">
         <v>6</v>
       </c>
-      <c r="K5" s="1">
+      <c r="N5" s="1">
         <v>6</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="R5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,35 +807,29 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6" s="1">
         <v>6</v>
       </c>
-      <c r="K6" s="1">
+      <c r="N6" s="1">
         <v>4</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -841,32 +845,26 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7" s="1">
         <v>6</v>
       </c>
-      <c r="K7" s="1">
+      <c r="N7" s="1">
         <v>4</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,32 +880,26 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8" s="1">
         <v>6</v>
       </c>
-      <c r="K8" s="1">
+      <c r="N8" s="1">
         <v>4</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/inst/app/www/data_dashboardr.xlsx
+++ b/inst/app/www/data_dashboardr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -44,9 +44,6 @@
     <t>graph3</t>
   </si>
   <si>
-    <t>graph4</t>
-  </si>
-  <si>
     <t>r$mtcars</t>
   </si>
   <si>
@@ -201,19 +198,42 @@
   </si>
   <si>
     <t>yeaaaahhhhhh !</t>
+  </si>
+  <si>
+    <t>module1</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>mod_ui</t>
+  </si>
+  <si>
+    <t>mod_server</t>
+  </si>
+  <si>
+    <t>counterServer("counter1")</t>
+  </si>
+  <si>
+    <t>counterButton(ns("counter1"), "Counter")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,10 +256,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,13 +544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="10" width="11.5546875" style="1"/>
     <col min="11" max="11" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -544,33 +567,34 @@
     <col min="23" max="23" width="12.5546875" style="1" customWidth="1"/>
     <col min="24" max="24" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.5546875" style="1"/>
+    <col min="26" max="26" width="37.88671875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -579,60 +603,66 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>46</v>
+      <c r="Z1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="72">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -641,42 +671,42 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1">
         <v>12</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="T2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="3" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="43.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -691,27 +721,27 @@
         <v>6</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="28.8">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -720,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M4" s="1">
         <v>6</v>
@@ -738,27 +768,27 @@
         <v>6</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -767,10 +797,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" s="1">
         <v>6</v>
@@ -779,27 +809,27 @@
         <v>6</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -808,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" s="1">
         <v>6</v>
@@ -820,24 +850,24 @@
         <v>4</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -852,27 +882,27 @@
         <v>4</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -880,12 +910,6 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M8" s="1">
         <v>6</v>
       </c>
@@ -893,13 +917,19 @@
         <v>4</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/inst/app/www/data_dashboardr.xlsx
+++ b/inst/app/www/data_dashboardr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -216,6 +216,33 @@
   </si>
   <si>
     <t>counterButton(ns("counter1"), "Counter")</t>
+  </si>
+  <si>
+    <t>row_title</t>
+  </si>
+  <si>
+    <t>Données COVID-19</t>
+  </si>
+  <si>
+    <t>Autres données</t>
+  </si>
+  <si>
+    <t>row_title_align</t>
+  </si>
+  <si>
+    <t>Dernière ligne</t>
+  </si>
+  <si>
+    <t>row_title_color</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>%r% icon('user')</t>
   </si>
 </sst>
 </file>
@@ -544,34 +571,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="10" width="11.5546875" style="1"/>
-    <col min="11" max="11" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" customWidth="1"/>
-    <col min="17" max="17" width="31.21875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="37.88671875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="4" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="13" width="11.5546875" style="1"/>
+    <col min="14" max="14" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="1" customWidth="1"/>
+    <col min="20" max="20" width="31.21875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.88671875" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="28.8">
+    <row r="1" spans="1:30" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,76 +616,85 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="72">
+    <row r="2" spans="1:30" ht="72">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -667,38 +707,47 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1">
+      <c r="N2" s="1">
         <v>12</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="43.2">
+    <row r="3" spans="1:30" ht="43.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -711,29 +760,38 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="M3" s="1">
-        <v>6</v>
-      </c>
-      <c r="N3" s="1">
-        <v>6</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>6</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="28.8">
+    <row r="4" spans="1:30" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -746,41 +804,50 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="1">
-        <v>6</v>
-      </c>
-      <c r="N4" s="1">
-        <v>6</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>6</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:30" ht="28.8">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -793,35 +860,44 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="1">
-        <v>6</v>
-      </c>
-      <c r="N5" s="1">
-        <v>6</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:30" ht="28.8">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -834,32 +910,41 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="1">
-        <v>6</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1">
         <v>4</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -872,29 +957,38 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="M7" s="1">
-        <v>6</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1">
         <v>4</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -907,28 +1001,37 @@
       <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="1">
         <v>3</v>
       </c>
-      <c r="M8" s="1">
-        <v>6</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1">
         <v>4</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z8" s="2" t="s">
+      <c r="U8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AD8" s="2" t="s">
         <v>62</v>
       </c>
     </row>

--- a/inst/app/www/data_dashboardr.xlsx
+++ b/inst/app/www/data_dashboardr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -203,46 +203,91 @@
     <t>module1</t>
   </si>
   <si>
+    <t>mod_ui</t>
+  </si>
+  <si>
+    <t>mod_server</t>
+  </si>
+  <si>
+    <t>counterServer("counter1")</t>
+  </si>
+  <si>
+    <t>counterButton(ns("counter1"), "Counter")</t>
+  </si>
+  <si>
+    <t>row_title</t>
+  </si>
+  <si>
+    <t>Données COVID-19</t>
+  </si>
+  <si>
+    <t>Autres données</t>
+  </si>
+  <si>
+    <t>row_title_align</t>
+  </si>
+  <si>
+    <t>Dernière ligne</t>
+  </si>
+  <si>
+    <t>row_title_color</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>%r% icon('user')</t>
+  </si>
+  <si>
+    <t>indicator</t>
+  </si>
+  <si>
     <t>module</t>
   </si>
   <si>
-    <t>mod_ui</t>
-  </si>
-  <si>
-    <t>mod_server</t>
-  </si>
-  <si>
-    <t>counterServer("counter1")</t>
-  </si>
-  <si>
-    <t>counterButton(ns("counter1"), "Counter")</t>
-  </si>
-  <si>
-    <t>row_title</t>
-  </si>
-  <si>
-    <t>Données COVID-19</t>
-  </si>
-  <si>
-    <t>Autres données</t>
-  </si>
-  <si>
-    <t>row_title_align</t>
-  </si>
-  <si>
-    <t>Dernière ligne</t>
-  </si>
-  <si>
-    <t>row_title_color</t>
-  </si>
-  <si>
-    <t>secondary</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>%r% icon('user')</t>
+    <t>indicator1</t>
+  </si>
+  <si>
+    <t>indicator2</t>
+  </si>
+  <si>
+    <t>indicator3</t>
+  </si>
+  <si>
+    <t>indicator4</t>
+  </si>
+  <si>
+    <t>box1</t>
+  </si>
+  <si>
+    <t>box3</t>
+  </si>
+  <si>
+    <t>box4</t>
+  </si>
+  <si>
+    <t>el_height</t>
+  </si>
+  <si>
+    <t>300px</t>
+  </si>
+  <si>
+    <t>indic_value</t>
+  </si>
+  <si>
+    <t>%r% dim(r$mtcars)[1]</t>
+  </si>
+  <si>
+    <t>indic_value_color</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>info</t>
   </si>
 </sst>
 </file>
@@ -571,38 +616,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="11.5546875" style="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8" max="13" width="11.5546875" style="1"/>
-    <col min="14" max="14" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" style="1" customWidth="1"/>
-    <col min="20" max="20" width="31.21875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="37.88671875" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="5" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="14" width="11.5546875" style="1"/>
+    <col min="15" max="15" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="18" style="1" customWidth="1"/>
+    <col min="23" max="23" width="31.21875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="37.88671875" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.8">
+    <row r="1" spans="1:33" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,88 +658,97 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" ht="72">
+    <row r="2" spans="1:33" ht="72">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -704,50 +758,53 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>12</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="43.2">
+    <row r="3" spans="1:33" ht="43.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -757,41 +814,41 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="P3" s="1">
-        <v>6</v>
-      </c>
       <c r="Q3" s="1">
         <v>6</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="R3" s="1">
+        <v>6</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="28.8">
+    <row r="4" spans="1:33" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -801,53 +858,53 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="H4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="1">
-        <v>6</v>
-      </c>
       <c r="Q4" s="1">
         <v>6</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="R4" s="1">
+        <v>6</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="28.8">
+    <row r="5" spans="1:33" ht="28.8">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -857,47 +914,47 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="H5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="1">
-        <v>6</v>
-      </c>
       <c r="Q5" s="1">
         <v>6</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="R5" s="1">
+        <v>6</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="28.8">
+    <row r="6" spans="1:33" ht="28.8">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,44 +964,44 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="H6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="1">
-        <v>6</v>
-      </c>
       <c r="Q6" s="1">
+        <v>6</v>
+      </c>
+      <c r="R6" s="1">
         <v>4</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -954,85 +1011,210 @@
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="H7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="P7" s="1">
-        <v>6</v>
-      </c>
       <c r="Q7" s="1">
+        <v>6</v>
+      </c>
+      <c r="R7" s="1">
         <v>4</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="H8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="P8" s="1">
-        <v>6</v>
-      </c>
       <c r="Q8" s="1">
+        <v>6</v>
+      </c>
+      <c r="R8" s="1">
         <v>4</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="28.8">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3</v>
+      </c>
+      <c r="U10" s="1">
+        <v>23</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" s="1">
+        <v>100</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/inst/app/www/data_dashboardr.xlsx
+++ b/inst/app/www/data_dashboardr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -218,9 +218,6 @@
     <t>row_title</t>
   </si>
   <si>
-    <t>Données COVID-19</t>
-  </si>
-  <si>
     <t>Autres données</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>indicator4</t>
   </si>
   <si>
-    <t>box1</t>
-  </si>
-  <si>
     <t>box3</t>
   </si>
   <si>
@@ -284,10 +278,97 @@
     <t>indic_value_color</t>
   </si>
   <si>
-    <t>danger</t>
-  </si>
-  <si>
     <t>info</t>
+  </si>
+  <si>
+    <t>indic_delta</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>indic_gauge</t>
+  </si>
+  <si>
+    <t>%r% div(icon("virus"),"Données COVID-19")</t>
+  </si>
+  <si>
+    <t>indic_value_suffix</t>
+  </si>
+  <si>
+    <t>indic_value_prefix</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>indic_delta_value</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>indic_delta_invcolor</t>
+  </si>
+  <si>
+    <t>Nombre de lignes</t>
+  </si>
+  <si>
+    <t>indic_delta_format</t>
+  </si>
+  <si>
+    <t>.1%</t>
+  </si>
+  <si>
+    <t>.1f</t>
+  </si>
+  <si>
+    <t>indic_delta_pos</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>indic_gauge_step_val</t>
+  </si>
+  <si>
+    <t>indic_gauge_step_color</t>
+  </si>
+  <si>
+    <t>indic_gauge_max</t>
+  </si>
+  <si>
+    <t>indic_gauge_min</t>
+  </si>
+  <si>
+    <t>indic_gauge_color</t>
+  </si>
+  <si>
+    <t>c(-1000,10,20,50,100,1000)</t>
+  </si>
+  <si>
+    <t>c(NA,NA,"warning","danger","black")</t>
+  </si>
+  <si>
+    <t>Nombre d'utilisateurs</t>
+  </si>
+  <si>
+    <t>indic_tresh_value</t>
+  </si>
+  <si>
+    <t>indic_tresh_color</t>
+  </si>
+  <si>
+    <t>Hier : 25 passages</t>
+  </si>
+  <si>
+    <t>infobox</t>
+  </si>
+  <si>
+    <t>infobox1</t>
   </si>
 </sst>
 </file>
@@ -616,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AV13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -633,21 +714,23 @@
     <col min="16" max="16" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="18" style="1" customWidth="1"/>
-    <col min="23" max="23" width="31.21875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="37.88671875" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="11.5546875" style="1"/>
+    <col min="20" max="28" width="18" style="1" customWidth="1"/>
+    <col min="29" max="35" width="22.44140625" style="1" customWidth="1"/>
+    <col min="36" max="37" width="18" style="1" customWidth="1"/>
+    <col min="38" max="38" width="31.21875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5546875" style="1" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.5546875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="37.88671875" style="1" customWidth="1"/>
+    <col min="48" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="28.8">
+    <row r="1" spans="1:48" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -667,10 +750,10 @@
         <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>19</v>
@@ -709,46 +792,91 @@
         <v>25</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="72">
+    <row r="2" spans="1:48" ht="72">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,13 +887,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>49</v>
@@ -788,23 +916,23 @@
       <c r="T2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="43.2">
+    <row r="3" spans="1:48" ht="43.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -818,13 +946,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -838,17 +966,20 @@
       <c r="T3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO3" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" ht="28.8">
+    <row r="4" spans="1:48" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -862,13 +993,13 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
@@ -894,17 +1025,20 @@
       <c r="T4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO4" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" ht="28.8">
+    <row r="5" spans="1:48" ht="28.8">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -918,13 +1052,13 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
@@ -944,17 +1078,20 @@
       <c r="T5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO5" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" ht="28.8">
+    <row r="6" spans="1:48" ht="28.8">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -968,13 +1105,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -994,14 +1131,17 @@
       <c r="T6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO6" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:48">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1015,13 +1155,13 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
@@ -1035,22 +1175,25 @@
       <c r="T7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AN7" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO7" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:48">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -1059,13 +1202,13 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
@@ -1076,28 +1219,31 @@
       <c r="R8" s="1">
         <v>4</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AO8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AV8" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="28.8">
+    <row r="9" spans="1:48" ht="28.8">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -1115,21 +1261,39 @@
         <v>3</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="W9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:48" ht="28.8">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -1146,19 +1310,61 @@
       <c r="Q10" s="1">
         <v>3</v>
       </c>
-      <c r="U10" s="1">
-        <v>23</v>
+      <c r="T10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="V10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="Y10" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>150</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:48">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -1176,21 +1382,45 @@
         <v>3</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U11" s="1">
         <v>1000</v>
       </c>
       <c r="V11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>900</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="AA11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:48">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -1208,14 +1438,72 @@
         <v>3</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U12" s="1">
         <v>100</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>120</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>150</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48">
+      <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>6</v>
+      </c>
+      <c r="R13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
